--- a/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:17:23+00:00</t>
+    <t>2023-03-08T14:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:35:35+00:00</t>
+    <t>2023-03-08T14:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:37:17+00:00</t>
+    <t>2023-03-08T15:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:08:56+00:00</t>
+    <t>2023-03-08T15:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:34+00:00</t>
+    <t>2023-03-08T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:41:32+00:00</t>
+    <t>2023-03-09T10:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/fixes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:46:46+00:00</t>
+    <t>2023-03-09T10:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
